--- a/CUDA_Matrix_Multiplication/dataSources/TimeTable_serial_code.xlsx
+++ b/CUDA_Matrix_Multiplication/dataSources/TimeTable_serial_code.xlsx
@@ -353,6 +353,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -360,15 +369,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="medium">
           <color rgb="FF000000"/>
         </bottom>
@@ -388,14 +388,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="A1:C5" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="A1:C5" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C5"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Measure" dataDxfId="2"/>
     <tableColumn id="2" name="Matrix Multi Time (sec)" dataDxfId="1"/>
     <tableColumn id="3" name="Execution Time (sec)" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -665,7 +665,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
